--- a/Actividades_semillero_2020.xlsx
+++ b/Actividades_semillero_2020.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Edgar/Documents/Repositorios/SemilleroMSFS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19575B4-A118-3445-952A-FC25FC061D76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE15C5D0-860F-3841-A1F8-2878983A6DBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{5DBDD7BE-4B56-DC42-B2F6-72D5CEDB9107}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividades 2020" sheetId="1" r:id="rId1"/>
-    <sheet name="Flujo evolución" sheetId="2" r:id="rId2"/>
+    <sheet name="Checklist" sheetId="3" r:id="rId2"/>
+    <sheet name="Flujo evolución" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="48">
   <si>
     <t>Semana</t>
   </si>
@@ -143,13 +144,43 @@
   </si>
   <si>
     <t>Presentación del artículo "A laboratory experiment on the minority game"</t>
+  </si>
+  <si>
+    <t>Tarea</t>
+  </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>Check?</t>
+  </si>
+  <si>
+    <t>Implementación modelo redes</t>
+  </si>
+  <si>
+    <t>Compromiso</t>
+  </si>
+  <si>
+    <t>Implementación heurística</t>
+  </si>
+  <si>
+    <t>Semestre</t>
+  </si>
+  <si>
+    <t>Implementación prueba experimental</t>
+  </si>
+  <si>
+    <t>Implementación análisis estadístico</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -162,6 +193,13 @@
       <color theme="1"/>
       <name val="Bell MT"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -213,10 +251,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -258,8 +297,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -574,9 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BD3A2F-4F88-5746-96CA-1753DC74AAED}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -866,7 +905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -1003,12 +1042,1030 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7F693F-7800-BE40-BB9E-1AC12FF67054}">
+  <dimension ref="A1:I67"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1">
+        <f>SUM(E2:E67)</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="15">
+        <f>2000000/I1</f>
+        <v>15151.515151515152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" t="e">
+        <f>2000000/I10</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2">
+        <v>11</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2">
+        <v>11</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2">
+        <v>11</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2">
+        <v>12</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2">
+        <v>12</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2">
+        <v>12</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2">
+        <v>13</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2">
+        <v>13</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2">
+        <v>13</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2">
+        <v>14</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2">
+        <v>14</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2">
+        <v>14</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2">
+        <v>13</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2">
+        <v>13</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2">
+        <v>13</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2">
+        <v>14</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2">
+        <v>14</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2">
+        <v>14</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>2</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>2</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>2</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>2</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>2</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>2</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>2</v>
+      </c>
+      <c r="B44" s="2">
+        <v>3</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>2</v>
+      </c>
+      <c r="B45" s="2">
+        <v>3</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>2</v>
+      </c>
+      <c r="B46" s="2">
+        <v>3</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>2</v>
+      </c>
+      <c r="B47" s="2">
+        <v>4</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>2</v>
+      </c>
+      <c r="B48" s="2">
+        <v>4</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>2</v>
+      </c>
+      <c r="B49" s="2">
+        <v>4</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>2</v>
+      </c>
+      <c r="B50" s="2">
+        <v>5</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>2</v>
+      </c>
+      <c r="B51" s="2">
+        <v>5</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>2</v>
+      </c>
+      <c r="B52" s="2">
+        <v>5</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>2</v>
+      </c>
+      <c r="B53" s="2">
+        <v>6</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>2</v>
+      </c>
+      <c r="B54" s="2">
+        <v>6</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>2</v>
+      </c>
+      <c r="B55" s="2">
+        <v>6</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>2</v>
+      </c>
+      <c r="B56" s="2">
+        <v>7</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>2</v>
+      </c>
+      <c r="B57" s="2">
+        <v>7</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>2</v>
+      </c>
+      <c r="B58" s="2">
+        <v>7</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>2</v>
+      </c>
+      <c r="B59" s="2">
+        <v>8</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>2</v>
+      </c>
+      <c r="B60" s="2">
+        <v>8</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>2</v>
+      </c>
+      <c r="B61" s="2">
+        <v>8</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>2</v>
+      </c>
+      <c r="B62" s="2">
+        <v>10</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E62" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>2</v>
+      </c>
+      <c r="B63" s="2">
+        <v>10</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E63" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>2</v>
+      </c>
+      <c r="B64" s="2">
+        <v>10</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E64" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>2</v>
+      </c>
+      <c r="B65" s="2">
+        <v>11</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E65" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>2</v>
+      </c>
+      <c r="B66" s="2">
+        <v>11</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E66" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>2</v>
+      </c>
+      <c r="B67" s="2">
+        <v>11</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E67" s="2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292F0B2F-4F62-8E48-8AAB-6DEF2C3BE31F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/Actividades_semillero_2020.xlsx
+++ b/Actividades_semillero_2020.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Edgar/Documents/Repositorios/SemilleroMSFS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edgar.andrade\Documents\Repositorios\SemilleroMSFS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE15C5D0-860F-3841-A1F8-2878983A6DBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{5DBDD7BE-4B56-DC42-B2F6-72D5CEDB9107}"/>
+    <workbookView xWindow="75" yWindow="465" windowWidth="25440" windowHeight="15000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actividades 2020" sheetId="1" r:id="rId1"/>
     <sheet name="Checklist" sheetId="3" r:id="rId2"/>
     <sheet name="Flujo evolución" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="49">
   <si>
     <t>Semana</t>
   </si>
@@ -171,14 +170,17 @@
   </si>
   <si>
     <t>Implementación análisis estadístico</t>
+  </si>
+  <si>
+    <t>Presentación del artículo ??????????</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -253,7 +255,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -278,9 +280,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -297,10 +296,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -612,40 +614,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BD3A2F-4F88-5746-96CA-1753DC74AAED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="49.5" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="14" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:4" s="13" customFormat="1" ht="12.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -659,7 +661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -673,7 +675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -687,7 +689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -701,7 +703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -715,7 +717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -729,7 +731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -743,7 +745,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -757,7 +759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -771,7 +773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -785,7 +787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -799,7 +801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -813,7 +815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -827,29 +829,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+    <row r="16" spans="1:4" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="14" customFormat="1" ht="13" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:4" s="13" customFormat="1" ht="12.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -863,7 +865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2</v>
       </c>
@@ -877,7 +879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>3</v>
       </c>
@@ -891,7 +893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>4</v>
       </c>
@@ -905,7 +907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -913,27 +915,27 @@
         <v>25</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="C23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>7</v>
       </c>
@@ -947,7 +949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>8</v>
       </c>
@@ -961,7 +963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>9</v>
       </c>
@@ -975,7 +977,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>10</v>
       </c>
@@ -989,7 +991,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>11</v>
       </c>
@@ -1003,7 +1005,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>12</v>
       </c>
@@ -1017,21 +1019,21 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+    <row r="30" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
         <v>13</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:D2"/>
@@ -1042,39 +1044,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7F693F-7800-BE40-BB9E-1AC12FF67054}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="26.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="3" max="4" width="26.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>41</v>
       </c>
       <c r="I1">
@@ -1082,7 +1084,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1096,12 +1098,12 @@
       <c r="E2" s="2">
         <v>2</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="14">
         <f>2000000/I1</f>
         <v>15151.515151515152</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1116,7 +1118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1131,7 +1133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1146,7 +1148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -1161,7 +1163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -1176,7 +1178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -1191,7 +1193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -1206,7 +1208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -1221,7 +1223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -1235,12 +1237,8 @@
       <c r="E11" s="2">
         <v>2</v>
       </c>
-      <c r="I11" t="e">
-        <f>2000000/I10</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -1255,7 +1253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -1270,7 +1268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -1285,7 +1283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -1300,7 +1298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -1315,12 +1313,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>42</v>
@@ -1330,12 +1328,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>42</v>
@@ -1345,12 +1343,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1</v>
       </c>
       <c r="B19" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>42</v>
@@ -1360,7 +1358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -1375,7 +1373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -1390,7 +1388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -1405,7 +1403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -1420,7 +1418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -1435,7 +1433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -1450,7 +1448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -1465,7 +1463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1</v>
       </c>
@@ -1480,7 +1478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>1</v>
       </c>
@@ -1495,7 +1493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1</v>
       </c>
@@ -1510,7 +1508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1</v>
       </c>
@@ -1525,7 +1523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1</v>
       </c>
@@ -1540,7 +1538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1</v>
       </c>
@@ -1555,7 +1553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1</v>
       </c>
@@ -1570,7 +1568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1</v>
       </c>
@@ -1585,7 +1583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -1600,7 +1598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1</v>
       </c>
@@ -1615,7 +1613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1</v>
       </c>
@@ -1630,7 +1628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2</v>
       </c>
@@ -1645,7 +1643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>2</v>
       </c>
@@ -1660,7 +1658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2</v>
       </c>
@@ -1675,7 +1673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2</v>
       </c>
@@ -1690,7 +1688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>2</v>
       </c>
@@ -1705,7 +1703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>2</v>
       </c>
@@ -1720,7 +1718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>2</v>
       </c>
@@ -1734,7 +1732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>2</v>
       </c>
@@ -1748,7 +1746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>2</v>
       </c>
@@ -1762,7 +1760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>2</v>
       </c>
@@ -1776,7 +1774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>2</v>
       </c>
@@ -1790,7 +1788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>2</v>
       </c>
@@ -1804,7 +1802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>2</v>
       </c>
@@ -1818,7 +1816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>2</v>
       </c>
@@ -1832,7 +1830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>2</v>
       </c>
@@ -1846,7 +1844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>2</v>
       </c>
@@ -1860,7 +1858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>2</v>
       </c>
@@ -1874,7 +1872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>2</v>
       </c>
@@ -1888,7 +1886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>2</v>
       </c>
@@ -1902,7 +1900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>2</v>
       </c>
@@ -1916,7 +1914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>2</v>
       </c>
@@ -1930,7 +1928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>2</v>
       </c>
@@ -1944,7 +1942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>2</v>
       </c>
@@ -1958,7 +1956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>2</v>
       </c>
@@ -1972,7 +1970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>2</v>
       </c>
@@ -1986,7 +1984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>2</v>
       </c>
@@ -2000,7 +1998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>2</v>
       </c>
@@ -2014,7 +2012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>2</v>
       </c>
@@ -2028,7 +2026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>2</v>
       </c>
@@ -2042,7 +2040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>2</v>
       </c>
@@ -2062,12 +2060,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292F0B2F-4F62-8E48-8AAB-6DEF2C3BE31F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Actividades_semillero_2020.xlsx
+++ b/Actividades_semillero_2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="75" yWindow="465" windowWidth="25440" windowHeight="15000" activeTab="1"/>
+    <workbookView xWindow="75" yWindow="465" windowWidth="25440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Actividades 2020" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
     <t>Implementación análisis estadístico</t>
   </si>
   <si>
-    <t>Presentación del artículo ??????????</t>
+    <t>Presentación del artículo "Analyzing Computational Models"</t>
   </si>
 </sst>
 </file>
@@ -617,7 +617,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -773,7 +775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -907,7 +909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -1047,7 +1049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/Actividades_semillero_2020.xlsx
+++ b/Actividades_semillero_2020.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="60">
   <si>
     <t>Semana</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Flujo de trabajo sobre la implementación del modelo de racionalidad acotada</t>
   </si>
   <si>
-    <t>Presentación del artículo "Self-Organized Division of Cognitive Labor"</t>
-  </si>
-  <si>
     <t>Enero</t>
   </si>
   <si>
@@ -173,6 +170,42 @@
   </si>
   <si>
     <t>Presentación del artículo "Analyzing Computational Models"</t>
+  </si>
+  <si>
+    <t>Presentación del capítulo 10 del libro "Game Theory Evolving"</t>
+  </si>
+  <si>
+    <t>Nicolás</t>
+  </si>
+  <si>
+    <t>Esteban</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAFICA_PUNTAJE-Promedio-Politica_VS_RONDA </t>
+  </si>
+  <si>
+    <t>ESTEBAN</t>
+  </si>
+  <si>
+    <t>GRAFICA_USO-Politica_VS_RONDA</t>
+  </si>
+  <si>
+    <t>MIGUEL</t>
+  </si>
+  <si>
+    <t>RED REGULAR</t>
+  </si>
+  <si>
+    <t>ALEJANDRO</t>
+  </si>
+  <si>
+    <t>RED SMALL WORLD</t>
+  </si>
+  <si>
+    <t>NICOLÁS</t>
   </si>
 </sst>
 </file>
@@ -615,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -627,7 +660,7 @@
     <col min="4" max="4" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -641,20 +674,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="13" customFormat="1" ht="12.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="13" customFormat="1" ht="12.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -663,12 +696,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -677,110 +710,111 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>12</v>
@@ -789,12 +823,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>14</v>
@@ -803,12 +837,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>6</v>
@@ -817,26 +851,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>6</v>
@@ -847,7 +881,7 @@
     </row>
     <row r="17" spans="1:4" s="13" customFormat="1" ht="12.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -858,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>3</v>
@@ -872,10 +906,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>11</v>
@@ -886,10 +920,10 @@
         <v>3</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>8</v>
@@ -900,7 +934,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>6</v>
@@ -914,10 +948,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>11</v>
@@ -928,10 +962,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>11</v>
@@ -942,10 +976,10 @@
         <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>11</v>
@@ -956,7 +990,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>6</v>
@@ -970,13 +1004,13 @@
         <v>9</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -984,13 +1018,13 @@
         <v>10</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -998,13 +1032,13 @@
         <v>11</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1012,13 +1046,13 @@
         <v>12</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1026,13 +1060,13 @@
         <v>13</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1049,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1061,25 +1095,25 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I1">
         <f>SUM(E2:E67)</f>
@@ -1094,11 +1128,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="E2" s="2">
         <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
       </c>
       <c r="I2" s="14">
         <f>2000000/I1</f>
@@ -1113,11 +1152,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="E3" s="2">
         <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1128,11 +1172,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="E4" s="2">
         <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1140,14 +1189,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E5" s="2">
         <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1158,7 +1212,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="2">
@@ -1173,7 +1227,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="2">
@@ -1188,7 +1242,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="2">
@@ -1203,7 +1257,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="2">
@@ -1218,7 +1272,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="2">
@@ -1233,7 +1287,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="2">
@@ -1248,7 +1302,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="2">
@@ -1263,7 +1317,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="2">
@@ -1278,7 +1332,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="2">
@@ -1293,7 +1347,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="2">
@@ -1308,7 +1362,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="2">
@@ -1323,7 +1377,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="2">
@@ -1338,7 +1392,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="2">
@@ -1353,7 +1407,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="2">
@@ -1368,7 +1422,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="2">
@@ -1383,7 +1437,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="2">
@@ -1398,7 +1452,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="2">
@@ -1413,7 +1467,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="2">
@@ -1428,7 +1482,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="2">
@@ -1443,7 +1497,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="2">
@@ -1458,7 +1512,7 @@
         <v>13</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="2">
@@ -1473,7 +1527,7 @@
         <v>13</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="2">
@@ -1488,7 +1542,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="2">
@@ -1503,7 +1557,7 @@
         <v>14</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="2">
@@ -1518,7 +1572,7 @@
         <v>14</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="2">
@@ -1533,7 +1587,7 @@
         <v>14</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="2">
@@ -1548,7 +1602,7 @@
         <v>13</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="2">
@@ -1563,7 +1617,7 @@
         <v>13</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="2">
@@ -1578,7 +1632,7 @@
         <v>13</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="2">
@@ -1593,7 +1647,7 @@
         <v>14</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="2">
@@ -1608,7 +1662,7 @@
         <v>14</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="2">
@@ -1623,7 +1677,7 @@
         <v>14</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="2">
@@ -1638,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="2">
@@ -1653,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="2">
@@ -1668,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="2">
@@ -1683,7 +1737,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="2">
@@ -1698,7 +1752,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="2">
@@ -1713,7 +1767,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="2">
@@ -1728,7 +1782,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E44" s="2">
         <v>2</v>
@@ -1742,7 +1796,7 @@
         <v>3</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E45" s="2">
         <v>2</v>
@@ -1756,7 +1810,7 @@
         <v>3</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E46" s="2">
         <v>2</v>
@@ -1770,7 +1824,7 @@
         <v>4</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E47" s="2">
         <v>2</v>
@@ -1784,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E48" s="2">
         <v>2</v>
@@ -1798,7 +1852,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E49" s="2">
         <v>2</v>
@@ -1812,7 +1866,7 @@
         <v>5</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E50" s="2">
         <v>2</v>
@@ -1826,7 +1880,7 @@
         <v>5</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E51" s="2">
         <v>2</v>
@@ -1840,7 +1894,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E52" s="2">
         <v>2</v>
@@ -1854,7 +1908,7 @@
         <v>6</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E53" s="2">
         <v>2</v>
@@ -1868,7 +1922,7 @@
         <v>6</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E54" s="2">
         <v>2</v>
@@ -1882,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E55" s="2">
         <v>2</v>
@@ -1896,7 +1950,7 @@
         <v>7</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E56" s="2">
         <v>2</v>
@@ -1910,7 +1964,7 @@
         <v>7</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E57" s="2">
         <v>2</v>
@@ -1924,7 +1978,7 @@
         <v>7</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E58" s="2">
         <v>2</v>
@@ -1938,7 +1992,7 @@
         <v>8</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E59" s="2">
         <v>2</v>
@@ -1952,7 +2006,7 @@
         <v>8</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E60" s="2">
         <v>2</v>
@@ -1966,7 +2020,7 @@
         <v>8</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E61" s="2">
         <v>2</v>
@@ -1980,7 +2034,7 @@
         <v>10</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E62" s="2">
         <v>2</v>
@@ -1994,7 +2048,7 @@
         <v>10</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E63" s="2">
         <v>2</v>
@@ -2008,7 +2062,7 @@
         <v>10</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E64" s="2">
         <v>2</v>
@@ -2022,7 +2076,7 @@
         <v>11</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E65" s="2">
         <v>2</v>
@@ -2036,7 +2090,7 @@
         <v>11</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E66" s="2">
         <v>2</v>
@@ -2050,7 +2104,7 @@
         <v>11</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E67" s="2">
         <v>2</v>
